--- a/data/income_statement/2digits/size/14_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/14_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>14-Manufacture of wearing apparel</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>14-Manufacture of wearing apparel</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,893 +841,1008 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>10092507.51872</v>
+        <v>10038229.30654</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>11562082.65829</v>
+        <v>11478494.49474</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>13964681.17732</v>
+        <v>13904029.02606</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>15049709.7892</v>
+        <v>15016829.04735</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>16654010.21277</v>
+        <v>16471078.48174</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>19503132.82212</v>
+        <v>19456244.86932</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>20599818.17035</v>
+        <v>21011603.40534</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>23023933.38261</v>
+        <v>23274233.79044</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>28367011.51176</v>
+        <v>28738205.1428</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>37324169.65576</v>
+        <v>36761450.4707</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>41967635.09914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>41555480.16583</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>48205190.831</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>5501004.10255</v>
+        <v>5409956.82319</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6838843.05746</v>
+        <v>6700343.89305</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>8622444.206899999</v>
+        <v>8552569.809049999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>9780293.769109998</v>
+        <v>9697058.62262</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10799327.29062</v>
+        <v>10600942.85168</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>12839003.44761</v>
+        <v>12757030.97867</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13722273.27651</v>
+        <v>13914114.00063</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>15622557.75104</v>
+        <v>15695160.30956</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>19631979.60843</v>
+        <v>19821622.71035</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>23854996.35334</v>
+        <v>23478840.12402</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>28337269.14579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>27985424.55273</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>32722457.739</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4473976.24078</v>
+        <v>4514335.16218</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4579344.09068</v>
+        <v>4640246.14271</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>5178248.955209999</v>
+        <v>5190350.57803</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>5093335.09471</v>
+        <v>5140330.27432</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>5620867.31679</v>
+        <v>5638874.744519999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>6422520.08311</v>
+        <v>6461815.125190001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>6611376.86787</v>
+        <v>6819748.60531</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>7042785.7252</v>
+        <v>7228747.10359</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>8306151.984219999</v>
+        <v>8489022.4147</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>12830841.17801</v>
+        <v>12661737.99336</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>12798247.20031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12748430.76227</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>14489437.81</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>117527.17539</v>
+        <v>113937.32117</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>143895.51015</v>
+        <v>137904.45898</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>163988.01521</v>
+        <v>161108.63898</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>176080.92538</v>
+        <v>179440.15041</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>233815.60536</v>
+        <v>231260.88554</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>241609.2914</v>
+        <v>237398.76546</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>266168.02597</v>
+        <v>277740.7994</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>358589.90637</v>
+        <v>350326.37729</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>428879.91911</v>
+        <v>427560.01775</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>638332.1244099999</v>
+        <v>620872.35332</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>832118.7530400001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>821624.85083</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>993295.282</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>209457.10953</v>
+        <v>205236.20653</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>247728.07133</v>
+        <v>243413.53815</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>288820.3175</v>
+        <v>285317.42436</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>320041.10167</v>
+        <v>312985.81735</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>313089.33762</v>
+        <v>312421.26861</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>439686.00061</v>
+        <v>443900.41698</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>446415.20355</v>
+        <v>474838.24911</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>612565.7702800001</v>
+        <v>636818.61214</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>829061.14402</v>
+        <v>859108.43727</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1198455.98976</v>
+        <v>1167242.61505</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1231641.39705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1209015.36439</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1409593.068</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>113785.08653</v>
+        <v>109178.79673</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>142093.97122</v>
+        <v>138523.56668</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>182390.88165</v>
+        <v>180498.64239</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>191228.30277</v>
+        <v>181324.20785</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>194188.26025</v>
+        <v>191652.23314</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>288765.334</v>
+        <v>291186.52539</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>280903.81059</v>
+        <v>300477.42368</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>447481.21627</v>
+        <v>453172.27859</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>649721.0186199999</v>
+        <v>675985.28376</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>857664.1238599999</v>
+        <v>827729.9631899999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>946065.10502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>922687.3189900001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1046594.27</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>60933.87798</v>
+        <v>61124.04543</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>71358.83100000001</v>
+        <v>70205.10803999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>68010.96537000001</v>
+        <v>66801.24583</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>82849.75343</v>
+        <v>84973.35377</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>76880.12649</v>
+        <v>79071.00374000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>89221.65063999999</v>
+        <v>91642.99542000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>103912.26156</v>
+        <v>111251.68636</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>104866.27319</v>
+        <v>123540.37545</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>112629.52353</v>
+        <v>119869.28452</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>172806.89725</v>
+        <v>171024.07888</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>164729.64801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>166176.91997</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>225120.608</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>34738.14502</v>
+        <v>34933.36437</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>34275.26911</v>
+        <v>34684.86343</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>38418.47048</v>
+        <v>38017.53614</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>45963.04547</v>
+        <v>46688.25573</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>42020.95088</v>
+        <v>41698.03173</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>61699.01597</v>
+        <v>61070.89616999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>61599.13140000001</v>
+        <v>63109.13907</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>60218.28081999999</v>
+        <v>60105.9581</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>66710.60187</v>
+        <v>63253.86899</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>167984.96865</v>
+        <v>168488.57298</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>120846.64402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>120151.12543</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>137878.19</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>9883050.409190001</v>
+        <v>9832993.10001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>11314354.58696</v>
+        <v>11235080.95659</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>13675860.85982</v>
+        <v>13618711.6017</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>14729668.68753</v>
+        <v>14703843.23</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>16340920.87515</v>
+        <v>16158657.21313</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>19063446.82151</v>
+        <v>19012344.45234</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>20153402.9668</v>
+        <v>20536765.15623</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>22411367.61233</v>
+        <v>22637415.1783</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>27537950.36774</v>
+        <v>27879096.70553</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>36125713.666</v>
+        <v>35594207.85565</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>40735993.70209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>40346464.80144</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>46795597.763</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>8481499.584790001</v>
+        <v>8438419.71618</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>9830555.812520001</v>
+        <v>9778610.89065</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>11645722.37688</v>
+        <v>11586459.04997</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>12735850.12294</v>
+        <v>12750403.85516</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>13980366.14581</v>
+        <v>13797911.06019</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>16309671.81124</v>
+        <v>16278487.73191</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>17223832.34006</v>
+        <v>17527129.00437</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>19409444.06442</v>
+        <v>19607145.10104</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>23868213.71971</v>
+        <v>24118282.0433</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>30720342.06456</v>
+        <v>30270094.47169</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>35084814.50164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>34768994.39584</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>39861156.24</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6825666.03928</v>
+        <v>6821386.762139999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>7891553.79695</v>
+        <v>7860664.01627</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>9279034.487260001</v>
+        <v>9241411.9056</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>10457172.80118</v>
+        <v>10480287.99804</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>11577750.07617</v>
+        <v>11438947.76017</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>13390748.7548</v>
+        <v>13428077.33569</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>13727541.63559</v>
+        <v>13972353.89541</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>15332258.85691</v>
+        <v>15484669.46571</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>18519645.66268</v>
+        <v>18757845.02848</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>24587083.00344</v>
+        <v>24158509.55421</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>28089589.28104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>27762326.0173</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>30794199.658</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1189790.1961</v>
+        <v>1156093.98991</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1272714.14919</v>
+        <v>1250663.75792</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1606231.0378</v>
+        <v>1592203.09487</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1377510.50464</v>
+        <v>1362940.91971</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1378936.82956</v>
+        <v>1333992.58764</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1678802.8564</v>
+        <v>1614813.20211</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2009516.13447</v>
+        <v>2034516.95509</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2213248.31101</v>
+        <v>2267724.03581</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3194302.56613</v>
+        <v>3228729.38546</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3188326.04455</v>
+        <v>3157842.75419</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3109931.63575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3061885.08196</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4862494.711</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>425752.22597</v>
+        <v>418842.1096</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>628605.67688</v>
+        <v>628776.64485</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>711024.2635</v>
+        <v>705537.4334600001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>862737.39573</v>
+        <v>865850.2954500001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>933396.89328</v>
+        <v>934245.9362700001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1179103.58437</v>
+        <v>1169112.63267</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1398151.13282</v>
+        <v>1431232.44282</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1706891.33608</v>
+        <v>1699979.90038</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2089620.92234</v>
+        <v>2073427.80768</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2860632.1987</v>
+        <v>2865986.69141</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3758271.18248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3819655.94531</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4094696.297</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>40291.12343999999</v>
+        <v>42096.85453</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>37682.18950000001</v>
+        <v>38506.47161</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>49432.58832</v>
+        <v>47306.61604</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>38429.42139</v>
+        <v>41324.64196</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>90282.34680000001</v>
+        <v>90724.77611000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>61016.61567</v>
+        <v>66484.56143999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>88623.43718000001</v>
+        <v>89025.71105000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>157045.56042</v>
+        <v>154771.69914</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>64644.56855999999</v>
+        <v>58279.82168</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>84300.81787</v>
+        <v>87755.47188</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>127022.40237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>125127.35127</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>109765.574</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1401550.8244</v>
+        <v>1394573.38383</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1483798.77444</v>
+        <v>1456470.06594</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2030138.48294</v>
+        <v>2032252.55173</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1993818.56459</v>
+        <v>1953439.37484</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2360554.72934</v>
+        <v>2360746.15294</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2753775.01027</v>
+        <v>2733856.72043</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2929570.62674</v>
+        <v>3009636.15186</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3001923.54791</v>
+        <v>3030270.07726</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3669736.64803</v>
+        <v>3760814.662229999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5405371.60144</v>
+        <v>5324113.38396</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5651179.200449999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5577470.4056</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>6934441.523</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>968629.6390799999</v>
+        <v>957713.33328</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1087945.38107</v>
+        <v>1060730.21064</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1256371.89421</v>
+        <v>1238136.52016</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1387531.42383</v>
+        <v>1370633.07214</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1554611.67088</v>
+        <v>1544991.56374</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1764367.53405</v>
+        <v>1743787.22431</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1860542.75549</v>
+        <v>1901700.93718</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2039770.90827</v>
+        <v>2048292.72947</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2352084.36446</v>
+        <v>2392482.60098</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2940129.8149</v>
+        <v>2900659.87399</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3558125.8188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3526812.07474</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3911063.194</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2426.19506</v>
+        <v>2416.84186</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>4741.245699999999</v>
+        <v>4563.1718</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>4622.60411</v>
+        <v>5004.240150000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4729.89808</v>
+        <v>5281.59704</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1848.43194</v>
+        <v>2030.27417</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5030.1274</v>
+        <v>4892.26496</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>6864.20127</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>7657.174559999999</v>
+        <v>7034.54504</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>16594.7235</v>
+        <v>17355.92681</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>7670.31832</v>
+        <v>7777.2435</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>9426.20491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>9259.44615</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>10078.992</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>445689.9894</v>
+        <v>449017.27441</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>480182.62475</v>
+        <v>477893.67616</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>537945.335</v>
+        <v>539995.28363</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>564433.80602</v>
+        <v>557799.71563</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>661575.4378699999</v>
+        <v>665115.2090800001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>741604.30509</v>
+        <v>742985.4423000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>757581.5129099999</v>
+        <v>799643.38606</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>775120.04347</v>
+        <v>795650.2475899999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>946889.9758199999</v>
+        <v>988976.2426700001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1280375.04965</v>
+        <v>1283137.74866</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1485213.67275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1486315.93995</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1600195.392</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>520513.45462</v>
+        <v>506279.21701</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>603021.51062</v>
+        <v>578273.3626799999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>713803.9550999999</v>
+        <v>693136.99638</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>818367.71973</v>
+        <v>807551.75947</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>891187.80107</v>
+        <v>877846.08049</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1017733.10156</v>
+        <v>995909.5170499999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1096097.04131</v>
+        <v>1095193.34985</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1256993.69024</v>
+        <v>1245607.93684</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1388599.66514</v>
+        <v>1386150.4315</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1652084.44693</v>
+        <v>1609744.88183</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2063485.94114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2031236.68864</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2300788.81</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>432921.18532</v>
+        <v>436860.05055</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>395853.39337</v>
+        <v>395739.8553</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>773766.5887300001</v>
+        <v>794116.0315699999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>606287.14076</v>
+        <v>582806.3027</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>805943.05846</v>
+        <v>815754.5892</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>989407.4762200001</v>
+        <v>990069.49612</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1069027.87125</v>
+        <v>1107935.21468</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>962152.63964</v>
+        <v>981977.3477899999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1317652.28357</v>
+        <v>1368332.06125</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2465241.78654</v>
+        <v>2423453.50997</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2093053.38165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2050658.33086</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3023378.329</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>336770.99714</v>
+        <v>348052.12497</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>335684.83385</v>
+        <v>342612.00523</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>373040.24636</v>
+        <v>385410.4621</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>299123.4674199999</v>
+        <v>307033.59227</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>478716.90694</v>
+        <v>488622.85362</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>459615.91744</v>
+        <v>477621.55057</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>820208.2268499999</v>
+        <v>950674.7339400001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>740418.56953</v>
+        <v>847593.06738</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>924266.31696</v>
+        <v>946603.6434100001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2998722.06845</v>
+        <v>2890647.25134</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1639935.87976</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1565119.20507</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2456822.638</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1429.919</v>
+        <v>7100.21345</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2016.06087</v>
+        <v>1303.87658</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>4509.34368</v>
+        <v>6146.18162</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>348.66553</v>
+        <v>154.75003</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>460.82673</v>
+        <v>1107.82786</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>988.06451</v>
+        <v>2287.91009</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>10088.36513</v>
+        <v>5201.905189999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4758.92121</v>
+        <v>1522.4228</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>10047.03732</v>
+        <v>850.4213199999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>23029.45227</v>
+        <v>3486.625</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>17007.27679</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>17158.80079</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3559.77</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>448.65758</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>66.29174999999999</v>
+        <v>866.54803</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>552.0480200000001</v>
+        <v>582.3528200000001</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>43.07578</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>484.95735</v>
+        <v>495.05895</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>235.6945</v>
+        <v>249.89107</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>50.96588</v>
+        <v>69.90638</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>2997.61512</v>
@@ -1840,233 +1856,263 @@
       <c r="M27" s="48" t="n">
         <v>14508.53872</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>5951.023</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>27375.79505</v>
+        <v>24716.0082</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>25386.23292</v>
+        <v>25525.79142</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>24116.81388</v>
+        <v>25082.96195</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>28366.34489</v>
+        <v>28935.40324</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>30111.69298</v>
+        <v>30491.32615</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>37695.10675</v>
+        <v>41058.34302</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>43782.43142</v>
+        <v>49855.72121</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>44402.03168</v>
+        <v>52287.94356</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>61815.44719</v>
+        <v>66659.02626</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>110546.26987</v>
+        <v>107112.36071</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>109070.67087</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>103350.19706</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>108818.086</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1403.37483</v>
+        <v>1399.02483</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>4103.93771</v>
+        <v>2642.25634</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1431.23105</v>
+        <v>1440.19377</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2770.21328</v>
+        <v>3033.65821</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1898.78075</v>
+        <v>1052.25301</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1738.41731</v>
+        <v>1510.54858</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4948.5117</v>
+        <v>7367.42092</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1050.009</v>
+        <v>1057.72772</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>4871.133849999999</v>
+        <v>8899.08352</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4037.45103</v>
+        <v>2416.95473</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>15085.8035</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>18546.76506</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>12296.282</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4956.01479</v>
+        <v>5083.91729</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>4844.18554</v>
+        <v>4784.96184</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3010.831</v>
+        <v>2754.5033</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1842.62767</v>
+        <v>1556.36549</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4882.63486</v>
+        <v>4908.48711</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2711.35288</v>
+        <v>2711.35206</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2160.91365</v>
+        <v>1547.87716</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6059.35681</v>
+        <v>6752.94275</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3690.50678</v>
+        <v>3461.37022</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4589.22123</v>
+        <v>4584.42122</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>26308.86241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>7759.90739</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>14995.863</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>2740.67823</v>
+        <v>18647.41775</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1243.40885</v>
+        <v>8212.77043</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1781.72587</v>
+        <v>1838.04101</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>7338.45079</v>
+        <v>7523.306979999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1869.45843</v>
+        <v>1828.73807</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1766.83362</v>
+        <v>1437.91519</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2294.186209999999</v>
+        <v>2156.92753</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1400.73632</v>
+        <v>1740.71721</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1653.59447</v>
+        <v>1942.09236</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>8927.86421</v>
+        <v>8927.285189999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>12104.93789</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>11197.82409</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>34789.159</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>221680.56272</v>
+        <v>222157.21257</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>222940.23309</v>
+        <v>223302.247</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>278607.17353</v>
+        <v>284112.46157</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>192227.97336</v>
+        <v>201000.21961</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>353972.38016</v>
+        <v>360868.57678</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>316498.26107</v>
+        <v>329120.52614</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>663642.5889</v>
+        <v>758445.014</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>574834.7550799999</v>
+        <v>662147.0013199999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>706489.72592</v>
+        <v>715688.7091499999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2596987.82769</v>
+        <v>2525933.84756</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1182766.45396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1147604.08986</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2005183.203</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>9055.553250000001</v>
+        <v>9093.86227</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>7604.497820000001</v>
+        <v>7542.67006</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>1033.2426</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>919.89927</v>
+        <v>931.79914</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>4163.82875</v>
+        <v>3535.735</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>3162.16791</v>
+        <v>3437.89713</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2085.64818</v>
+        <v>2990.14128</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>552.48688</v>
+        <v>805.1401</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>2138.52257</v>
+        <v>2270.91239</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>15457.71374</v>
@@ -2074,20 +2120,25 @@
       <c r="M33" s="48" t="n">
         <v>18612.44309</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>14586.602</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>5.46033</v>
+        <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>95.60436999999999</v>
+        <v>50.43084</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>3.16247</v>
@@ -2113,290 +2164,330 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>67680.44168999999</v>
+        <v>59405.81103</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>67474.52497</v>
+        <v>68430.88353000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>57902.23236</v>
+        <v>62370.09262</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>65263.05437999999</v>
+        <v>63851.85132</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>80841.06688</v>
+        <v>84303.57064000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>94476.64717</v>
+        <v>95463.79557</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>91120.72834999999</v>
+        <v>123005.93284</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>103967.09076</v>
+        <v>117885.99013</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>124680.29052</v>
+        <v>137951.96985</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>217028.31648</v>
+        <v>204610.09126</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>244470.89253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>226380.63901</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>256642.144</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>306318.86921</v>
+        <v>288799.65181</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>293774.22125</v>
+        <v>289321.21077</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>451909.13206</v>
+        <v>458796.84512</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>275204.87093</v>
+        <v>267978.96139</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>571096.85291</v>
+        <v>571755.3833100001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>522896.18943</v>
+        <v>552909.84627</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>858508.27814</v>
+        <v>971815.6966200001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>781437.2069199999</v>
+        <v>902933.9081700001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>867497.79859</v>
+        <v>912473.2413</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3100524.43007</v>
+        <v>2930772.758140001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1381842.63025</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1329425.07212</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2313093.205</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>24782.95559000001</v>
+        <v>24496.17341</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>24675.36692</v>
+        <v>26411.22323</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>31706.81454</v>
+        <v>31643.63673</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>28765.71648</v>
+        <v>28838.71235</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>28245.5484</v>
+        <v>27875.22517</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>32527.01227</v>
+        <v>31335.85049</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>39906.48879</v>
+        <v>39532.26746</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>40196.63393</v>
+        <v>41937.14665</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>37984.57702</v>
+        <v>40796.60989000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>65822.54536</v>
+        <v>66212.85232000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>86579.06897000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>85520.77875999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>107208.866</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>32848.02589</v>
+        <v>32658.52295</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>24274.56455</v>
+        <v>23791.06509</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>36725.31912000001</v>
+        <v>34034.99077</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>45524.5168</v>
+        <v>37570.69817</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>46325.18164</v>
+        <v>43961.57511</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>43494.23918</v>
+        <v>48528.41804</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>36161.90792000001</v>
+        <v>38715.07667</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>51524.66228</v>
+        <v>50471.37245</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>30387.65552</v>
+        <v>26165.4442</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>43941.87819</v>
+        <v>42352.37698</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>42954.92413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>42506.84904</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>160207.837</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>774.31348</v>
+        <v>1434.56774</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1100.55109</v>
+        <v>1094.44395</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1021.24387</v>
+        <v>1249.12389</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>616.8549099999999</v>
+        <v>616.47951</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>3280.22795</v>
+        <v>1349.26468</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>370.43275</v>
+        <v>289.0502099999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>4419.61644</v>
+        <v>50.00698999999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>2207.0492</v>
+        <v>2312.9814</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>2136.30146</v>
+        <v>2135.08519</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>2326.4797</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>10047.8915</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1496.29476</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>25850.848</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>207705.21198</v>
+        <v>198873.4344</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>216422.93384</v>
+        <v>211469.9895</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>354700.54549</v>
+        <v>363926.85027</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>175365.98961</v>
+        <v>177697.25644</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>459320.84988</v>
+        <v>466657.40015</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>404345.49473</v>
+        <v>422717.62222</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>745731.49365</v>
+        <v>856706.1781499999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>652696.41942</v>
+        <v>760161.9001500001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>751844.1799199999</v>
+        <v>802112.55935</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2879887.03896</v>
+        <v>2712688.9665</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1166883.88152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1125660.12285</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1924631.623</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>8632.258199999998</v>
+        <v>8670.59779</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>7582.31573</v>
+        <v>7567.09937</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>563.2762299999999</v>
+        <v>575.1761</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>1406.93214</v>
+        <v>1371.4381</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>4694.08702</v>
+        <v>5342.11256</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2859.07155</v>
+        <v>3453.46884</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1391.06278</v>
+        <v>1952.91857</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>496.3202900000001</v>
+        <v>809.2085400000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>4134.03978</v>
+        <v>4255.15984</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>18276.87263</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>19539.54107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>19629.06508</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>13158.849</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.01342</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>8.840969999999999</v>
+        <v>8.839870000000001</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>1.82802</v>
@@ -2405,7 +2496,7 @@
         <v>3.82796</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0.009810000000000001</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>16.08354</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0.3272</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1334.532</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>31576.09065</v>
+        <v>22666.3421</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>19709.64815</v>
+        <v>18978.54976</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>27190.10479</v>
+        <v>27365.23934</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>23521.03303</v>
+        <v>21880.54886</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>29230.94821</v>
+        <v>26569.80564</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>39283.85541</v>
+        <v>46569.35293</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>30897.70856</v>
+        <v>34859.24878</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>34260.18305000001</v>
+        <v>47185.36023000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>41011.04489</v>
+        <v>37008.38283</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>90269.61523000001</v>
+        <v>88915.21001000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>55836.99586</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>54611.63443000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>80700.64999999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>184337.16032</v>
+        <v>187376.30697</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>160354.60086</v>
+        <v>159744.68276</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>208979.00259</v>
+        <v>215633.48334</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>218811.32749</v>
+        <v>221660.09985</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>268797.8538</v>
+        <v>261936.42217</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>284723.1019199999</v>
+        <v>273724.72032</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>369900.06488</v>
+        <v>405021.63276</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>384030.79432</v>
+        <v>419677.6872</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>488532.60697</v>
+        <v>509925.3701</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>930773.7678400001</v>
+        <v>982268.1143699999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>851739.59266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>825300.27547</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1022929.957</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>176293.38707</v>
+        <v>178109.68416</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>151400.99084</v>
+        <v>149709.25194</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>204457.55447</v>
+        <v>207646.83135</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>211207.57691</v>
+        <v>214010.63295</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>259414.08804</v>
+        <v>251667.47647</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>273148.35397</v>
+        <v>262557.96669</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>351445.87352</v>
+        <v>384711.63507</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>367224.79181</v>
+        <v>401636.24454</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>459412.98713</v>
+        <v>483741.71478</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>872273.01164</v>
+        <v>930867.7815899999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>812616.89673</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>795360.1130599999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>962291.374</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>8043.77325</v>
+        <v>9266.622810000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>8953.61002</v>
+        <v>10035.43082</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>4521.44812</v>
+        <v>7986.65199</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>7603.75058</v>
+        <v>7649.4669</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>9383.76576</v>
+        <v>10268.9457</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>11574.74795</v>
+        <v>11166.75363</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>18454.19136</v>
+        <v>20309.99769</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>16806.00251</v>
+        <v>18041.44266</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>29119.61984</v>
+        <v>26183.65532</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>58500.7562</v>
+        <v>51400.33278</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>39122.69593</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>29940.16241</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>60638.583</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>279036.1529299999</v>
+        <v>308736.21674</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>277409.40511</v>
+        <v>289285.967</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>485918.70044</v>
+        <v>505096.16521</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>411394.40976</v>
+        <v>400200.83373</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>444765.25869</v>
+        <v>470685.63734</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>641404.10231</v>
+        <v>641056.4801</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>660827.7550799999</v>
+        <v>681772.61924</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>537103.20793</v>
+        <v>506958.8198</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>885888.1949700001</v>
+        <v>892537.09326</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1432665.65708</v>
+        <v>1401059.8888</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1499407.0385</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1461052.18834</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2144177.805</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>66185.25576</v>
+        <v>67017.80116999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>70679.65498000001</v>
+        <v>61903.75422</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>81670.95247</v>
+        <v>64086.55613</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>82410.72296</v>
+        <v>73686.53231000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>99382.81245</v>
+        <v>91622.54522</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>120611.05167</v>
+        <v>126737.90615</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>124664.26697</v>
+        <v>141705.53523</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>200265.5647</v>
+        <v>201302.41458</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>219421.19397</v>
+        <v>230114.97472</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>281846.89984</v>
+        <v>239694.15799</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>354248.22689</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>313212.42492</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>478823.791</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1831.09319</v>
+        <v>2031.86175</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1816.4983</v>
+        <v>1730.6926</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>604.48123</v>
+        <v>613.01825</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>641.28793</v>
+        <v>464.52655</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>955.4482399999999</v>
+        <v>1068.51307</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1280.41954</v>
+        <v>4937.4772</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>964.79661</v>
+        <v>796.37233</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1001.11669</v>
+        <v>4155.54581</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2300.82603</v>
+        <v>2000.04664</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3918.03587</v>
+        <v>3857.40596</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>23619.38381</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6321.16894</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>6271.382</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>64354.16257</v>
+        <v>64985.93942</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>68863.15667999999</v>
+        <v>60173.06162000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>81066.47124</v>
+        <v>63473.53788</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>81769.43503000001</v>
+        <v>73222.00576</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>98427.36421000001</v>
+        <v>90554.03215</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>119330.63213</v>
+        <v>121800.42895</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>123699.47036</v>
+        <v>140909.1629</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>199264.44801</v>
+        <v>197146.86877</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>217120.36794</v>
+        <v>228114.92808</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>277928.8639699999</v>
+        <v>235836.75203</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>330628.84308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>306891.25598</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>472552.409</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>72152.87122</v>
+        <v>67379.42570000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>70679.74381</v>
+        <v>50970.72334</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>598214.63627</v>
+        <v>573519.10925</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>94607.47427999999</v>
+        <v>106008.00051</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>78443.01957999999</v>
+        <v>72482.31806000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>242623.96141</v>
+        <v>235147.67824</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>83542.18171999999</v>
+        <v>85915.17429000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>394451.43284</v>
+        <v>401944.36911</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>116180.36964</v>
+        <v>162874.0538</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>449285.7050600001</v>
+        <v>393516.7154700001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>156193.61318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>150831.40604</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>215166.141</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>5136.39887</v>
+        <v>4882.57944</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>15986.76163</v>
+        <v>4453.30318</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1027.06172</v>
+        <v>1001.21727</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3712.46967</v>
+        <v>4063.12596</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>5345.40181</v>
+        <v>5041.03523</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>4316.14327</v>
+        <v>4549.718519999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>5682.19542</v>
+        <v>5304.450610000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5788.382820000001</v>
+        <v>5456.41866</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>7282.39603</v>
+        <v>6582.53702</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>8976.40026</v>
+        <v>6294.53255</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>8604.635960000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>7567.497490000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>10782.609</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3792.95009</v>
+        <v>1737.24169</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3436.08564</v>
+        <v>2815.2867</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>10491.8895</v>
+        <v>10053.25818</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3113.49142</v>
+        <v>3019.34425</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3721.61598</v>
+        <v>3053.01703</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>7466.78605</v>
+        <v>8307.636259999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5517.009950000001</v>
+        <v>3327.5617</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>14626.12034</v>
+        <v>14800.59395</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5364.46741</v>
+        <v>5232.5551</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5514.046859999999</v>
+        <v>6840.018289999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>13274.92448</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14173.61955</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>5055.706</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>63223.52226</v>
+        <v>60759.60457</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>51256.89654</v>
+        <v>43702.13346</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>586695.68505</v>
+        <v>562464.6338</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>87781.51319</v>
+        <v>98925.53030000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>69376.00179000001</v>
+        <v>64388.26579999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>230841.03209</v>
+        <v>222290.32346</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>72342.97635</v>
+        <v>77283.16198</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>374036.9296799999</v>
+        <v>381687.3565</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>103533.5062</v>
+        <v>151058.96168</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>434795.25794</v>
+        <v>380382.16463</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>134314.05274</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>129090.289</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>199327.826</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>273068.53747</v>
+        <v>308374.59221</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>277409.31628</v>
+        <v>300218.99788</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-30624.98336</v>
+        <v>-4336.38791</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>399197.65844</v>
+        <v>367879.36553</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>465705.0515599999</v>
+        <v>489825.8645</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>519391.1925700001</v>
+        <v>532646.7080099999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>701949.84033</v>
+        <v>737562.9801800001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>342917.3397899999</v>
+        <v>306316.86527</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>989129.0193</v>
+        <v>959778.0141799999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1265226.85186</v>
+        <v>1247237.33132</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1697461.65221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1623433.20722</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2407835.455</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>65467.87687000001</v>
+        <v>64534.85254000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>64621.90779</v>
+        <v>63538.87901999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>94980.46467</v>
+        <v>94402.01483</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>93404.1047</v>
+        <v>92962.13711</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>112821.88883</v>
+        <v>113936.18905</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>133566.63205</v>
+        <v>132783.61995</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>138490.37568</v>
+        <v>143119.78523</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>149807.44718</v>
+        <v>153004.41955</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>187737.16961</v>
+        <v>192195.17607</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>348403.1787999999</v>
+        <v>330500.37148</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>325648.14677</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>316880.02394</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>522730.643</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>207600.6606</v>
+        <v>243839.73967</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>212787.40849</v>
+        <v>236680.11886</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-125605.44803</v>
+        <v>-98738.40274</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>305793.5537399999</v>
+        <v>274917.22842</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>352883.16273</v>
+        <v>375889.67545</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>385824.56052</v>
+        <v>399863.08806</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>563459.46465</v>
+        <v>594443.19495</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>193109.89261</v>
+        <v>153312.44572</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>801391.8496899999</v>
+        <v>767582.83811</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>916823.6730600001</v>
+        <v>916736.95984</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1371813.50544</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1306553.18328</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1885104.812</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1230</v>
+        <v>1081</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1399</v>
+        <v>1209</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1543</v>
+        <v>1350</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1685</v>
+        <v>1470</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1536</v>
+        <v>1383</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1606</v>
+        <v>1449</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1684</v>
+        <v>1518</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1764</v>
+        <v>1541</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1968</v>
+        <v>1687</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1539</v>
+        <v>1470</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1589</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>